--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B15C6-0640-4897-AB43-455C2238DA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27960" windowHeight="13875"/>
+    <workbookView xWindow="1560" yWindow="1320" windowWidth="24765" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -261,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,21 +471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,52 +491,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -511,12 +544,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -524,12 +557,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -541,29 +574,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B15C6-0640-4897-AB43-455C2238DA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA93EC-B5DF-4DB0-97B6-F21DB44D41D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1320" windowWidth="24765" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="840" windowWidth="15615" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -580,7 +580,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -594,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6B9E6-8492-47B5-AB74-054F3998C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA93EC-B5DF-4DB0-97B6-F21DB44D41D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="840" windowWidth="15615" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -127,12 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -501,7 +502,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -579,7 +580,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6B9E6-8492-47B5-AB74-054F3998C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E56E08-3411-4295-8CF7-4C86D7D20CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="3150" windowWidth="19245" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,9 +191,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,26 +226,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,26 +261,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -579,8 +547,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E56E08-3411-4295-8CF7-4C86D7D20CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939DCCA-9404-4B78-B99D-019E0F4A0BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="3150" windowWidth="19245" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="26025" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E56E08-3411-4295-8CF7-4C86D7D20CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6B9E6-8492-47B5-AB74-054F3998C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="3150" windowWidth="19245" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,9 +191,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,9 +226,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +278,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,9 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -547,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6B9E6-8492-47B5-AB74-054F3998C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939DCCA-9404-4B78-B99D-019E0F4A0BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="26025" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,9 +191,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,26 +226,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,26 +261,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -579,8 +547,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
